--- a/attachments/contact/form.xlsx
+++ b/attachments/contact/form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14265" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="物流地产收购前期调查表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="131">
   <si>
     <r>
       <t>請聯絡</t>
@@ -26,7 +26,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> Min.Fang@KB727.com@kb727.com </t>
+      <t xml:space="preserve"> webmaster@kb727.com </t>
     </r>
     <r>
       <rPr>
@@ -43,7 +43,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-Please contact Min.Fang@KB727.com@kb727.com to check your self-translation request form.</t>
+Please contact webmaster@kb727.com to check your self-translation request form.</t>
     </r>
   </si>
   <si>
@@ -66,7 +66,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>说明：请发送已填写的表单文件给 Min.Fang@KB727.com ，另附：区位图、卫星图、交通图、红线图、建筑平面图、建筑参数、现场实景照片、土地证、产权证、消防合格证，以便评估反馈。</t>
+      <t>说明：请发送已填写的表单文件给 webmaster@kb727.com ，另附：区位图、卫星图、交通图、红线图、建筑平面图、建筑参数、现场实景照片、土地证、产权证、消防合格证，以便评估反馈。</t>
     </r>
   </si>
   <si>
@@ -317,36 +317,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <r>
-      <t>請聯絡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Min.Fang@KB727.com </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>核對您自行翻譯的需求表。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-Please contact Min.Fang@KB727.com to check your self-translation request form.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -368,7 +338,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>说明：请发送已填写的表单文件给 Min.Fang@KB727.com ，另附：区位图、卫星图、交通图、红线图、建筑平面图、建筑参数、现场实景照片、土地证、产权证、消防合格证，以便评估反馈。</t>
+      <t>说明：请发送已填写的表单文件给 webmaster@kb727.com ，另附：区位图、卫星图、交通图、红线图、建筑平面图、建筑参数、现场实景照片、土地证、产权证、消防合格证，以便评估反馈。</t>
     </r>
   </si>
   <si>
@@ -519,8 +489,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -598,6 +568,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -606,22 +591,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,14 +614,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -662,6 +624,44 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,21 +684,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -708,21 +693,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,7 +725,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,37 +779,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,13 +809,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,73 +857,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,23 +999,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,8 +1008,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,15 +1040,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1105,6 +1051,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,16 +1084,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1141,130 +1111,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1696,19 +1666,19 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.8833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.4416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.225" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4416666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.775" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.775" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8849557522124" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.4424778761062" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.2212389380531" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.4424778761062" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7787610619469" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7787610619469" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2379,26 +2349,26 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.8583333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.4416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.225" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4416666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.775" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.858407079646" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.4424778761062" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.2212389380531" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.4424778761062" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.0973451327434" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7787610619469" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="48" customHeight="1" spans="1:10">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2412,7 +2382,7 @@
     <row r="2" s="1" customFormat="1" ht="141" customHeight="1" spans="1:7">
       <c r="A2" s="4"/>
       <c r="B2" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -2525,7 +2495,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -2577,7 +2547,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2613,10 +2583,10 @@
       <c r="A18" s="12"/>
       <c r="B18" s="18"/>
       <c r="C18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -2626,10 +2596,10 @@
       <c r="A19" s="12"/>
       <c r="B19" s="18"/>
       <c r="C19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>92</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
@@ -2657,7 +2627,7 @@
         <v>32</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -2667,10 +2637,10 @@
       <c r="A22" s="12"/>
       <c r="B22" s="18"/>
       <c r="C22" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="25" t="s">
         <v>94</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>95</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
@@ -2680,10 +2650,10 @@
       <c r="A23" s="12"/>
       <c r="B23" s="18"/>
       <c r="C23" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>97</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -2693,10 +2663,10 @@
       <c r="A24" s="12"/>
       <c r="B24" s="18"/>
       <c r="C24" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="25" t="s">
         <v>98</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>99</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
@@ -2711,7 +2681,7 @@
         <v>45</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
@@ -2803,10 +2773,10 @@
       <c r="A32" s="12"/>
       <c r="B32" s="19"/>
       <c r="C32" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>101</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>102</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
@@ -2816,10 +2786,10 @@
       <c r="A33" s="12"/>
       <c r="B33" s="19"/>
       <c r="C33" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>103</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>104</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -2935,10 +2905,10 @@
       <c r="A42" s="12"/>
       <c r="B42" s="19"/>
       <c r="C42" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="25" t="s">
         <v>105</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>106</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
@@ -2982,13 +2952,13 @@
     <row r="46" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
       <c r="A46" s="12"/>
       <c r="B46" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="D46" s="25" t="s">
         <v>108</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>109</v>
       </c>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
@@ -2998,10 +2968,10 @@
       <c r="A47" s="12"/>
       <c r="B47" s="18"/>
       <c r="C47" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>111</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
@@ -3011,10 +2981,10 @@
       <c r="A48" s="12"/>
       <c r="B48" s="18"/>
       <c r="C48" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="25" t="s">
         <v>112</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>113</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -3024,10 +2994,10 @@
       <c r="A49" s="12"/>
       <c r="B49" s="18"/>
       <c r="C49" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="25" t="s">
         <v>114</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>115</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
@@ -3037,10 +3007,10 @@
       <c r="A50" s="12"/>
       <c r="B50" s="18"/>
       <c r="C50" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>116</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>117</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
@@ -3050,10 +3020,10 @@
       <c r="A51" s="12"/>
       <c r="B51" s="18"/>
       <c r="C51" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="21" t="s">
         <v>118</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>119</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
@@ -3063,10 +3033,10 @@
       <c r="A52" s="12"/>
       <c r="B52" s="18"/>
       <c r="C52" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -3076,10 +3046,10 @@
       <c r="A53" s="12"/>
       <c r="B53" s="18"/>
       <c r="C53" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="21" t="s">
         <v>122</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>123</v>
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
@@ -3089,10 +3059,10 @@
       <c r="A54" s="12"/>
       <c r="B54" s="18"/>
       <c r="C54" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>125</v>
       </c>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
@@ -3102,10 +3072,10 @@
       <c r="A55" s="12"/>
       <c r="B55" s="18"/>
       <c r="C55" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>127</v>
       </c>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
@@ -3115,10 +3085,10 @@
       <c r="A56" s="12"/>
       <c r="B56" s="18"/>
       <c r="C56" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="21" t="s">
         <v>128</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>129</v>
       </c>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
@@ -3128,10 +3098,10 @@
       <c r="A57" s="12"/>
       <c r="B57" s="24"/>
       <c r="C57" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="21" t="s">
         <v>130</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>131</v>
       </c>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>

--- a/attachments/contact/form.xlsx
+++ b/attachments/contact/form.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7035" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7035"/>
   </bookViews>
   <sheets>
-    <sheet name="物流地产收购前期调查表" sheetId="1" r:id="rId1"/>
+    <sheet name="物流仓储二手地及建筑物资产收购前期调查表" sheetId="1" r:id="rId1"/>
     <sheet name="酒店资产收购前期调查表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -18,6 +18,11 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="131">
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>請聯絡</t>
     </r>
     <r>
@@ -48,7 +53,7 @@
   </si>
   <si>
     <r>
-      <t>物流地产收购前期调查表</t>
+      <t>物流仓储二手地及建筑物资产收购前期调查表</t>
     </r>
     <r>
       <rPr>
@@ -320,6 +325,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>酒店资产收购前期调查表</t>
     </r>
     <r>
@@ -488,10 +499,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -562,52 +573,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,23 +596,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,7 +640,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,8 +693,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,7 +703,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,25 +730,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,19 +766,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,25 +790,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,19 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,7 +844,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,13 +892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,37 +904,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,15 +1016,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1025,17 +1027,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,17 +1046,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,6 +1081,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1099,10 +1110,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1111,10 +1122,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1123,118 +1134,118 @@
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1665,7 +1676,7 @@
   <sheetPr/>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2348,7 +2359,7 @@
   <sheetPr/>
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
